--- a/tests/Feature/config/pension_zero.xlsx
+++ b/tests/Feature/config/pension_zero.xlsx
@@ -112,7 +112,7 @@
     <t>Anskaffelsesverdi</t>
   </si>
   <si>
-    <t>Betalt (inkl kostnader)</t>
+    <t>Finans kostnader)</t>
   </si>
   <si>
     <t>Skattbar</t>
@@ -148,10 +148,10 @@
     <t>pension</t>
   </si>
   <si>
-    <t xml:space="preserve">000 Asset rule </t>
+    <t xml:space="preserve"> Asset rule: </t>
   </si>
   <si>
-    <t xml:space="preserve">Folketrygden fra 204200 Asset rule </t>
+    <t xml:space="preserve">Folketrygden fra 2042 Asset rule: </t>
   </si>
   <si>
     <t>total</t>
@@ -576,7 +576,7 @@
     <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
@@ -6177,7 +6177,7 @@
     <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
@@ -6397,7 +6397,7 @@
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="1">
@@ -6467,7 +6467,7 @@
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="1">
@@ -6537,7 +6537,7 @@
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="1">
@@ -6607,7 +6607,7 @@
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" s="1">
@@ -6677,7 +6677,7 @@
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="1">
@@ -6747,7 +6747,7 @@
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="1">
@@ -6817,7 +6817,7 @@
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="1">
@@ -6887,7 +6887,7 @@
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="1">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="1">
@@ -7027,7 +7027,7 @@
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="1">
@@ -7097,7 +7097,7 @@
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="1">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" s="1">
@@ -7237,7 +7237,7 @@
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="1">
@@ -7307,7 +7307,7 @@
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" s="1">
@@ -7377,7 +7377,7 @@
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="1">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="1">
@@ -7517,7 +7517,7 @@
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="1">
@@ -7587,7 +7587,7 @@
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="1">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" s="1">
@@ -7727,7 +7727,7 @@
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" s="1">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" s="1">
@@ -7867,7 +7867,7 @@
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" s="1">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="1">
@@ -8007,7 +8007,7 @@
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="1">
@@ -8077,7 +8077,7 @@
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" s="1">
@@ -8147,7 +8147,7 @@
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" s="1">
@@ -8217,7 +8217,7 @@
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X32" s="2"/>
       <c r="Y32" s="1">
@@ -8287,7 +8287,7 @@
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" s="1">
@@ -8357,7 +8357,7 @@
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" s="1">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" s="1">
@@ -8497,7 +8497,7 @@
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" s="1">
@@ -8567,7 +8567,7 @@
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" s="1">
@@ -8637,7 +8637,7 @@
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" s="1">
@@ -8707,7 +8707,7 @@
       </c>
       <c r="V39" s="9"/>
       <c r="W39" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="8">
@@ -8778,7 +8778,7 @@
       </c>
       <c r="V40" s="12"/>
       <c r="W40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X40" s="12"/>
       <c r="Y40" s="11">
@@ -8849,7 +8849,7 @@
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" s="1">
@@ -8919,7 +8919,7 @@
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" s="1">
@@ -8989,7 +8989,7 @@
       </c>
       <c r="V43" s="2"/>
       <c r="W43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" s="1">
@@ -9059,7 +9059,7 @@
       </c>
       <c r="V44" s="2"/>
       <c r="W44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="1">
@@ -9129,7 +9129,7 @@
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" s="1">
@@ -9199,7 +9199,7 @@
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" s="1">
@@ -9269,7 +9269,7 @@
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" s="1">
@@ -9339,7 +9339,7 @@
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" s="1">
@@ -9409,7 +9409,7 @@
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" s="1">
@@ -9479,7 +9479,7 @@
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" s="1">
@@ -9549,7 +9549,7 @@
       </c>
       <c r="V51" s="2"/>
       <c r="W51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="1">
@@ -9619,7 +9619,7 @@
       </c>
       <c r="V52" s="2"/>
       <c r="W52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" s="1">
@@ -9689,7 +9689,7 @@
       </c>
       <c r="V53" s="14"/>
       <c r="W53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X53" s="14"/>
       <c r="Y53" s="13">
@@ -9760,7 +9760,7 @@
       </c>
       <c r="V54" s="2"/>
       <c r="W54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" s="1">
@@ -9830,7 +9830,7 @@
       </c>
       <c r="V55" s="2"/>
       <c r="W55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" s="1">
@@ -9900,7 +9900,7 @@
       </c>
       <c r="V56" s="2"/>
       <c r="W56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" s="1">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="V57" s="14"/>
       <c r="W57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X57" s="14"/>
       <c r="Y57" s="13">
@@ -10043,7 +10043,7 @@
       </c>
       <c r="V58" s="2"/>
       <c r="W58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" s="1">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="V59" s="2"/>
       <c r="W59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" s="1">
@@ -10189,7 +10189,7 @@
       </c>
       <c r="V60" s="2"/>
       <c r="W60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" s="1">
@@ -10262,7 +10262,7 @@
       </c>
       <c r="V61" s="2"/>
       <c r="W61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" s="1">
@@ -10335,7 +10335,7 @@
       </c>
       <c r="V62" s="2"/>
       <c r="W62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" s="1">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="V63" s="2"/>
       <c r="W63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X63" s="2"/>
       <c r="Y63" s="1">
@@ -10481,7 +10481,7 @@
       </c>
       <c r="V64" s="2"/>
       <c r="W64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" s="1">
@@ -10554,7 +10554,7 @@
       </c>
       <c r="V65" s="2"/>
       <c r="W65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X65" s="2"/>
       <c r="Y65" s="1">
@@ -10627,7 +10627,7 @@
       </c>
       <c r="V66" s="2"/>
       <c r="W66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" s="1">
@@ -10700,7 +10700,7 @@
       </c>
       <c r="V67" s="2"/>
       <c r="W67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" s="1">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="V68" s="2"/>
       <c r="W68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" s="1">
@@ -10846,7 +10846,7 @@
       </c>
       <c r="V69" s="2"/>
       <c r="W69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" s="1">
@@ -10919,7 +10919,7 @@
       </c>
       <c r="V70" s="2"/>
       <c r="W70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" s="1">
@@ -10992,7 +10992,7 @@
       </c>
       <c r="V71" s="2"/>
       <c r="W71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" s="1">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="V72" s="16"/>
       <c r="W72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X72" s="16"/>
       <c r="Y72" s="5">
